--- a/cms-ars-3.1-low-microsoft-windows-server-2016-stig-overlay.xlsx
+++ b/cms-ars-3.1-low-microsoft-windows-server-2016-stig-overlay.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-high-microsoft-windows-server-2016-stig-overlay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/Documents/Projects/CMS/Inspec/STIG_Profiles/microsoft-windows-server-2016/cms-ars-3.1-low-microsoft-windows-server-2016-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F14AC61D-CBF5-FC42-AA94-A5AFC82DBC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083E5B15-C2CC-A044-843B-ABF19FA4D5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44260" yWindow="7760" windowWidth="38880" windowHeight="22960"/>
+    <workbookView xWindow="44260" yWindow="5840" windowWidth="38880" windowHeight="22960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-high-microsoft-wind" sheetId="1" r:id="rId1"/>
+    <sheet name="DELETE_THIS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cms-ars-3.1-high-microsoft-wind'!$A$1:$AD$273</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="3181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="3184">
   <si>
     <t>descriptions</t>
   </si>
@@ -28559,12 +28560,52 @@
   <si>
     <t>NOTES</t>
   </si>
+  <si>
+    <t>(not in ARS)
+Add to Overlay:
+desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is not included in CMS ARS 3.1'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(not in ARS)
+Add to Overlay:
+desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not applied to this system categorization</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in CMS ARS 3.1'</t>
+    </r>
+  </si>
+  <si>
+    <t>describe "For this CMS ARS 3.1 overlay, this control must be reviewed manually" do 
+skip "For this CMS ARS 3.1 overlay, this control must be reviewed manually"
+end</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28706,8 +28747,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -28887,8 +28945,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -29003,6 +29067,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -29048,7 +29140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -29063,6 +29155,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -29417,10 +29515,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -29530,7 +29628,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -29596,7 +29694,7 @@
       </c>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -29664,7 +29762,7 @@
       </c>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -47639,7 +47737,33 @@
       <c r="AD273" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD273"/>
+  <autoFilter ref="A1:AD273" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98875E4F-A563-544E-BBFC-3372B8345236}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>